--- a/option_allocation.xlsx
+++ b/option_allocation.xlsx
@@ -399,7 +399,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>103075000</v>
+        <v>82925000</v>
       </c>
       <c r="E2" t="n">
         <v>35125000</v>
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>67950000</v>
+        <v>47800000</v>
       </c>
       <c r="E3" t="n">
         <v>7500000</v>
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>60450000</v>
+        <v>40300000</v>
       </c>
       <c r="E4" t="n">
         <v>7500000</v>
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>52950000</v>
+        <v>32800000</v>
       </c>
       <c r="E5" t="n">
         <v>32800000</v>
@@ -461,16 +461,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.5000000000039895</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.5000000000039895</v>
       </c>
       <c r="D6" t="n">
-        <v>20150000</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>20150000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
